--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Serie</t>
   </si>
@@ -473,6 +473,75 @@
   </si>
   <si>
     <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -830,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2929,6 +2998,334 @@
       <c r="B150">
         <v>0.75</v>
       </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151">
+        <v>0.75</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152">
+        <v>0.75</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153">
+        <v>0.75</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154">
+        <v>0.75</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155">
+        <v>0.75</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156">
+        <v>0.75</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157">
+        <v>0.75</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158">
+        <v>0.75</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159">
+        <v>0.75</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160">
+        <v>0.75</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161">
+        <v>0.75</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162">
+        <v>0.75</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163">
+        <v>0.75</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164">
+        <v>0.75</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165">
+        <v>0.75</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166">
+        <v>0.75</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167">
+        <v>0.75</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168">
+        <v>0.75</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169">
+        <v>1.5</v>
+      </c>
+      <c r="C169">
+        <v>1.75</v>
+      </c>
+      <c r="D169">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170">
+        <v>1.5</v>
+      </c>
+      <c r="C170">
+        <v>1.75</v>
+      </c>
+      <c r="D170">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171">
+        <v>1.5</v>
+      </c>
+      <c r="C171">
+        <v>1.75</v>
+      </c>
+      <c r="D171">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172">
+        <v>1.5</v>
+      </c>
+      <c r="C172">
+        <v>1.75</v>
+      </c>
+      <c r="D172">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173">
+        <v>1.5</v>
+      </c>
+      <c r="C173">
+        <v>1.75</v>
+      </c>
+      <c r="D173">
+        <v>1.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Serie</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
   </si>
 </sst>
 </file>
@@ -899,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3327,6 +3333,34 @@
         <v>1.25</v>
       </c>
     </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174">
+        <v>1.5</v>
+      </c>
+      <c r="C174">
+        <v>1.75</v>
+      </c>
+      <c r="D174">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175">
+        <v>1.5</v>
+      </c>
+      <c r="C175">
+        <v>1.75</v>
+      </c>
+      <c r="D175">
+        <v>1.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Serie</t>
   </si>
@@ -548,6 +548,24 @@
   </si>
   <si>
     <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
   </si>
 </sst>
 </file>
@@ -905,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3361,6 +3379,84 @@
         <v>1.25</v>
       </c>
     </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176">
+        <v>1.5</v>
+      </c>
+      <c r="C176">
+        <v>1.75</v>
+      </c>
+      <c r="D176">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177">
+        <v>1.5</v>
+      </c>
+      <c r="C177">
+        <v>1.75</v>
+      </c>
+      <c r="D177">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178">
+        <v>1.5</v>
+      </c>
+      <c r="C178">
+        <v>1.75</v>
+      </c>
+      <c r="D178">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179">
+        <v>1.5</v>
+      </c>
+      <c r="C179">
+        <v>1.75</v>
+      </c>
+      <c r="D179">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180">
+        <v>1.5</v>
+      </c>
+      <c r="C180">
+        <v>1.75</v>
+      </c>
+      <c r="D180">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Serie</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3456,6 +3459,23 @@
       <c r="B181">
         <v>1.5</v>
       </c>
+      <c r="C181">
+        <v>1.75</v>
+      </c>
+      <c r="D181">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="C182">
+        <v>1.75</v>
+      </c>
+      <c r="D182">
+        <v>1.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Serie</t>
   </si>
@@ -569,6 +569,21 @@
   </si>
   <si>
     <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
   </si>
 </sst>
 </file>
@@ -926,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3470,10 +3485,83 @@
       <c r="A182" t="s">
         <v>184</v>
       </c>
+      <c r="B182">
+        <v>1.5</v>
+      </c>
       <c r="C182">
         <v>1.75</v>
       </c>
       <c r="D182">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183">
+        <v>1.5</v>
+      </c>
+      <c r="C183">
+        <v>1.75</v>
+      </c>
+      <c r="D183">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184">
+        <v>1.5</v>
+      </c>
+      <c r="C184">
+        <v>1.75</v>
+      </c>
+      <c r="D184">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185">
+        <v>1.5</v>
+      </c>
+      <c r="C185">
+        <v>1.75</v>
+      </c>
+      <c r="D185">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186">
+        <v>1.5</v>
+      </c>
+      <c r="C186">
+        <v>1.75</v>
+      </c>
+      <c r="D186">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187">
+        <v>1.5</v>
+      </c>
+      <c r="C187">
+        <v>1.75</v>
+      </c>
+      <c r="D187">
         <v>1.25</v>
       </c>
     </row>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Serie</t>
   </si>
@@ -584,6 +584,21 @@
   </si>
   <si>
     <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
   </si>
 </sst>
 </file>
@@ -941,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3565,6 +3580,76 @@
         <v>1.25</v>
       </c>
     </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188">
+        <v>1.5</v>
+      </c>
+      <c r="C188">
+        <v>1.75</v>
+      </c>
+      <c r="D188">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189">
+        <v>1.5</v>
+      </c>
+      <c r="C189">
+        <v>1.75</v>
+      </c>
+      <c r="D189">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190">
+        <v>1.5</v>
+      </c>
+      <c r="C190">
+        <v>1.75</v>
+      </c>
+      <c r="D190">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191">
+        <v>1.5</v>
+      </c>
+      <c r="C191">
+        <v>1.75</v>
+      </c>
+      <c r="D191">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192">
+        <v>1.5</v>
+      </c>
+      <c r="C192">
+        <v>1.75</v>
+      </c>
+      <c r="D192">
+        <v>1.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Serie</t>
   </si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
   </si>
 </sst>
 </file>
@@ -956,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3650,6 +3653,20 @@
         <v>1.25</v>
       </c>
     </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193">
+        <v>1.5</v>
+      </c>
+      <c r="C193">
+        <v>1.75</v>
+      </c>
+      <c r="D193">
+        <v>1.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>Serie</t>
   </si>
@@ -602,6 +602,15 @@
   </si>
   <si>
     <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
   </si>
 </sst>
 </file>
@@ -959,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3667,6 +3676,48 @@
         <v>1.25</v>
       </c>
     </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194">
+        <v>1.5</v>
+      </c>
+      <c r="C194">
+        <v>1.75</v>
+      </c>
+      <c r="D194">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195">
+        <v>1.5</v>
+      </c>
+      <c r="C195">
+        <v>1.75</v>
+      </c>
+      <c r="D195">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196">
+        <v>1.5</v>
+      </c>
+      <c r="C196">
+        <v>1.75</v>
+      </c>
+      <c r="D196">
+        <v>1.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Serie</t>
   </si>
@@ -611,6 +611,48 @@
   </si>
   <si>
     <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3718,6 +3760,202 @@
         <v>1.25</v>
       </c>
     </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197">
+        <v>1.5</v>
+      </c>
+      <c r="C197">
+        <v>1.75</v>
+      </c>
+      <c r="D197">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198">
+        <v>2.75</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199">
+        <v>2.75</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200">
+        <v>2.75</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+      <c r="D200">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201">
+        <v>2.75</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202">
+        <v>2.75</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203">
+        <v>2.75</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+      <c r="D203">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204">
+        <v>2.75</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205">
+        <v>2.75</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+      <c r="D205">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206">
+        <v>2.75</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207">
+        <v>2.75</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+      <c r="D207">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208">
+        <v>2.75</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209">
+        <v>2.75</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210">
+        <v>2.75</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+      <c r="D210">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Serie</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3956,6 +3959,14 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211">
+        <v>2.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Serie</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3967,6 +3970,14 @@
         <v>2.75</v>
       </c>
     </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>214</v>
+      </c>
+      <c r="B212">
+        <v>2.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Serie</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3969,6 +3975,12 @@
       <c r="B211">
         <v>2.75</v>
       </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+      <c r="D211">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
@@ -3976,6 +3988,37 @@
       </c>
       <c r="B212">
         <v>2.75</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+      <c r="D212">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>215</v>
+      </c>
+      <c r="B213">
+        <v>2.75</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+      <c r="D213">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>216</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+      <c r="D214">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -4014,6 +4014,9 @@
       <c r="A214" t="s">
         <v>216</v>
       </c>
+      <c r="B214">
+        <v>2.75</v>
+      </c>
       <c r="C214">
         <v>3</v>
       </c>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Serie</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>08-11-2021</t>
+  </si>
+  <si>
+    <t>09-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D214"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4024,6 +4027,20 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>217</v>
+      </c>
+      <c r="B215">
+        <v>2.75</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+      <c r="D215">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
+++ b/3/1/Tasa de política monetaria y de la facilidad permanente 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Serie</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>09-11-2021</t>
+  </si>
+  <si>
+    <t>10-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4041,6 +4044,20 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216">
+        <v>2.75</v>
+      </c>
+      <c r="C216">
+        <v>3</v>
+      </c>
+      <c r="D216">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
